--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.0551393392112</v>
+        <v>7.379281</v>
       </c>
       <c r="H2">
-        <v>7.0551393392112</v>
+        <v>22.137843</v>
       </c>
       <c r="I2">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499962</v>
       </c>
       <c r="J2">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499961</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.65328518200574</v>
+        <v>22.795622</v>
       </c>
       <c r="N2">
-        <v>3.65328518200574</v>
+        <v>68.386866</v>
       </c>
       <c r="O2">
-        <v>0.04618353891798903</v>
+        <v>0.2266510574407626</v>
       </c>
       <c r="P2">
-        <v>0.04618353891798903</v>
+        <v>0.2266510574407626</v>
       </c>
       <c r="Q2">
-        <v>25.77443600492605</v>
+        <v>168.215300307782</v>
       </c>
       <c r="R2">
-        <v>25.77443600492605</v>
+        <v>1513.937702770038</v>
       </c>
       <c r="S2">
-        <v>0.0123683597456458</v>
+        <v>0.06219581268682545</v>
       </c>
       <c r="T2">
-        <v>0.0123683597456458</v>
+        <v>0.06219581268682545</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.0551393392112</v>
+        <v>7.379281</v>
       </c>
       <c r="H3">
-        <v>7.0551393392112</v>
+        <v>22.137843</v>
       </c>
       <c r="I3">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499962</v>
       </c>
       <c r="J3">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499961</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.805356755231044</v>
+        <v>0.8340480000000001</v>
       </c>
       <c r="N3">
-        <v>0.805356755231044</v>
+        <v>2.502144</v>
       </c>
       <c r="O3">
-        <v>0.01018103520395245</v>
+        <v>0.00829272661023916</v>
       </c>
       <c r="P3">
-        <v>0.01018103520395245</v>
+        <v>0.00829272661023916</v>
       </c>
       <c r="Q3">
-        <v>5.681904125930024</v>
+        <v>6.154674559488001</v>
       </c>
       <c r="R3">
-        <v>5.681904125930024</v>
+        <v>55.39207103539201</v>
       </c>
       <c r="S3">
-        <v>0.002726571175266085</v>
+        <v>0.002275625257333246</v>
       </c>
       <c r="T3">
-        <v>0.002726571175266085</v>
+        <v>0.002275625257333246</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.0551393392112</v>
+        <v>7.379281</v>
       </c>
       <c r="H4">
-        <v>7.0551393392112</v>
+        <v>22.137843</v>
       </c>
       <c r="I4">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499962</v>
       </c>
       <c r="J4">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499961</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.621286591234121</v>
+        <v>9.344218666666668</v>
       </c>
       <c r="N4">
-        <v>8.621286591234121</v>
+        <v>28.032656</v>
       </c>
       <c r="O4">
-        <v>0.1089872552984757</v>
+        <v>0.09290718374597164</v>
       </c>
       <c r="P4">
-        <v>0.1089872552984757</v>
+        <v>0.09290718374597164</v>
       </c>
       <c r="Q4">
-        <v>60.82437818442988</v>
+        <v>68.95361526677867</v>
       </c>
       <c r="R4">
-        <v>60.82437818442988</v>
+        <v>620.582537401008</v>
       </c>
       <c r="S4">
-        <v>0.02918774985208052</v>
+        <v>0.02549486361445799</v>
       </c>
       <c r="T4">
-        <v>0.02918774985208052</v>
+        <v>0.02549486361445798</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.0551393392112</v>
+        <v>7.379281</v>
       </c>
       <c r="H5">
-        <v>7.0551393392112</v>
+        <v>22.137843</v>
       </c>
       <c r="I5">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499962</v>
       </c>
       <c r="J5">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499961</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>66.0236929695071</v>
+        <v>67.601958</v>
       </c>
       <c r="N5">
-        <v>66.0236929695071</v>
+        <v>202.805874</v>
       </c>
       <c r="O5">
-        <v>0.8346481705795828</v>
+        <v>0.6721490322030266</v>
       </c>
       <c r="P5">
-        <v>0.8346481705795828</v>
+        <v>0.6721490322030266</v>
       </c>
       <c r="Q5">
-        <v>465.8063535891715</v>
+        <v>498.853844232198</v>
       </c>
       <c r="R5">
-        <v>465.8063535891715</v>
+        <v>4489.684598089782</v>
       </c>
       <c r="S5">
-        <v>0.2235261540503646</v>
+        <v>0.1844458868913795</v>
       </c>
       <c r="T5">
-        <v>0.2235261540503646</v>
+        <v>0.1844458868913794</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.1389875660213</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H6">
-        <v>13.1389875660213</v>
+        <v>39.894172</v>
       </c>
       <c r="I6">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207339</v>
       </c>
       <c r="J6">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207338</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.65328518200574</v>
+        <v>22.795622</v>
       </c>
       <c r="N6">
-        <v>3.65328518200574</v>
+        <v>68.386866</v>
       </c>
       <c r="O6">
-        <v>0.04618353891798903</v>
+        <v>0.2266510574407626</v>
       </c>
       <c r="P6">
-        <v>0.04618353891798903</v>
+        <v>0.2266510574407626</v>
       </c>
       <c r="Q6">
-        <v>48.00046858150328</v>
+        <v>303.1374883049946</v>
       </c>
       <c r="R6">
-        <v>48.00046858150328</v>
+        <v>2728.237394744952</v>
       </c>
       <c r="S6">
-        <v>0.02303394973461825</v>
+        <v>0.1120818522838018</v>
       </c>
       <c r="T6">
-        <v>0.02303394973461825</v>
+        <v>0.1120818522838018</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.1389875660213</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H7">
-        <v>13.1389875660213</v>
+        <v>39.894172</v>
       </c>
       <c r="I7">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207339</v>
       </c>
       <c r="J7">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207338</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.805356755231044</v>
+        <v>0.8340480000000001</v>
       </c>
       <c r="N7">
-        <v>0.805356755231044</v>
+        <v>2.502144</v>
       </c>
       <c r="O7">
-        <v>0.01018103520395245</v>
+        <v>0.00829272661023916</v>
       </c>
       <c r="P7">
-        <v>0.01018103520395245</v>
+        <v>0.00829272661023916</v>
       </c>
       <c r="Q7">
-        <v>10.58157239319195</v>
+        <v>11.091218122752</v>
       </c>
       <c r="R7">
-        <v>10.58157239319195</v>
+        <v>99.82096310476801</v>
       </c>
       <c r="S7">
-        <v>0.005077771401421891</v>
+        <v>0.004100859574421807</v>
       </c>
       <c r="T7">
-        <v>0.005077771401421891</v>
+        <v>0.004100859574421806</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.1389875660213</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H8">
-        <v>13.1389875660213</v>
+        <v>39.894172</v>
       </c>
       <c r="I8">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207339</v>
       </c>
       <c r="J8">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207338</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.621286591234121</v>
+        <v>9.344218666666668</v>
       </c>
       <c r="N8">
-        <v>8.621286591234121</v>
+        <v>28.032656</v>
       </c>
       <c r="O8">
-        <v>0.1089872552984757</v>
+        <v>0.09290718374597164</v>
       </c>
       <c r="P8">
-        <v>0.1089872552984757</v>
+        <v>0.09290718374597164</v>
       </c>
       <c r="Q8">
-        <v>113.2749773253313</v>
+        <v>124.2599555645369</v>
       </c>
       <c r="R8">
-        <v>113.2749773253313</v>
+        <v>1118.339600080832</v>
       </c>
       <c r="S8">
-        <v>0.05435718048192412</v>
+        <v>0.04594379290483398</v>
       </c>
       <c r="T8">
-        <v>0.05435718048192412</v>
+        <v>0.04594379290483397</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.1389875660213</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H9">
-        <v>13.1389875660213</v>
+        <v>39.894172</v>
       </c>
       <c r="I9">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207339</v>
       </c>
       <c r="J9">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207338</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>66.0236929695071</v>
+        <v>67.601958</v>
       </c>
       <c r="N9">
-        <v>66.0236929695071</v>
+        <v>202.805874</v>
       </c>
       <c r="O9">
-        <v>0.8346481705795828</v>
+        <v>0.6721490322030266</v>
       </c>
       <c r="P9">
-        <v>0.8346481705795828</v>
+        <v>0.6721490322030266</v>
       </c>
       <c r="Q9">
-        <v>867.4844809891616</v>
+        <v>898.9747133295919</v>
       </c>
       <c r="R9">
-        <v>867.4844809891616</v>
+        <v>8090.772419966327</v>
       </c>
       <c r="S9">
-        <v>0.4162791431241474</v>
+        <v>0.3323863095576763</v>
       </c>
       <c r="T9">
-        <v>0.4162791431241474</v>
+        <v>0.3323863095576762</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.66480271275972</v>
+        <v>1.673314666666667</v>
       </c>
       <c r="H10">
-        <v>1.66480271275972</v>
+        <v>5.019944000000001</v>
       </c>
       <c r="I10">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320158</v>
       </c>
       <c r="J10">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320156</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.65328518200574</v>
+        <v>22.795622</v>
       </c>
       <c r="N10">
-        <v>3.65328518200574</v>
+        <v>68.386866</v>
       </c>
       <c r="O10">
-        <v>0.04618353891798903</v>
+        <v>0.2266510574407626</v>
       </c>
       <c r="P10">
-        <v>0.04618353891798903</v>
+        <v>0.2266510574407626</v>
       </c>
       <c r="Q10">
-        <v>6.081999081488044</v>
+        <v>38.14424862838933</v>
       </c>
       <c r="R10">
-        <v>6.081999081488044</v>
+        <v>343.298237655504</v>
       </c>
       <c r="S10">
-        <v>0.002918564448826523</v>
+        <v>0.0141034289891004</v>
       </c>
       <c r="T10">
-        <v>0.002918564448826523</v>
+        <v>0.0141034289891004</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.66480271275972</v>
+        <v>1.673314666666667</v>
       </c>
       <c r="H11">
-        <v>1.66480271275972</v>
+        <v>5.019944000000001</v>
       </c>
       <c r="I11">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320158</v>
       </c>
       <c r="J11">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320156</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.805356755231044</v>
+        <v>0.8340480000000001</v>
       </c>
       <c r="N11">
-        <v>0.805356755231044</v>
+        <v>2.502144</v>
       </c>
       <c r="O11">
-        <v>0.01018103520395245</v>
+        <v>0.00829272661023916</v>
       </c>
       <c r="P11">
-        <v>0.01018103520395245</v>
+        <v>0.00829272661023916</v>
       </c>
       <c r="Q11">
-        <v>1.340760110848008</v>
+        <v>1.395624751104001</v>
       </c>
       <c r="R11">
-        <v>1.340760110848008</v>
+        <v>12.560622759936</v>
       </c>
       <c r="S11">
-        <v>0.0006433895733125155</v>
+        <v>0.0005160173625225586</v>
       </c>
       <c r="T11">
-        <v>0.0006433895733125155</v>
+        <v>0.0005160173625225585</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.66480271275972</v>
+        <v>1.673314666666667</v>
       </c>
       <c r="H12">
-        <v>1.66480271275972</v>
+        <v>5.019944000000001</v>
       </c>
       <c r="I12">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320158</v>
       </c>
       <c r="J12">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320156</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.621286591234121</v>
+        <v>9.344218666666668</v>
       </c>
       <c r="N12">
-        <v>8.621286591234121</v>
+        <v>28.032656</v>
       </c>
       <c r="O12">
-        <v>0.1089872552984757</v>
+        <v>0.09290718374597164</v>
       </c>
       <c r="P12">
-        <v>0.1089872552984757</v>
+        <v>0.09290718374597164</v>
       </c>
       <c r="Q12">
-        <v>14.35274130456556</v>
+        <v>15.63581814347378</v>
       </c>
       <c r="R12">
-        <v>14.35274130456556</v>
+        <v>140.722363291264</v>
       </c>
       <c r="S12">
-        <v>0.006887439467429227</v>
+        <v>0.005781176948098182</v>
       </c>
       <c r="T12">
-        <v>0.006887439467429227</v>
+        <v>0.005781176948098181</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.66480271275972</v>
+        <v>1.673314666666667</v>
       </c>
       <c r="H13">
-        <v>1.66480271275972</v>
+        <v>5.019944000000001</v>
       </c>
       <c r="I13">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320158</v>
       </c>
       <c r="J13">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320156</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>66.0236929695071</v>
+        <v>67.601958</v>
       </c>
       <c r="N13">
-        <v>66.0236929695071</v>
+        <v>202.805874</v>
       </c>
       <c r="O13">
-        <v>0.8346481705795828</v>
+        <v>0.6721490322030266</v>
       </c>
       <c r="P13">
-        <v>0.8346481705795828</v>
+        <v>0.6721490322030266</v>
       </c>
       <c r="Q13">
-        <v>109.9164231620503</v>
+        <v>113.119347816784</v>
       </c>
       <c r="R13">
-        <v>109.9164231620503</v>
+        <v>1018.074130351056</v>
       </c>
       <c r="S13">
-        <v>0.05274551355315964</v>
+        <v>0.04182467204348043</v>
       </c>
       <c r="T13">
-        <v>0.05274551355315964</v>
+        <v>0.04182467204348043</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.48500837742407</v>
+        <v>4.540576</v>
       </c>
       <c r="H14">
-        <v>4.48500837742407</v>
+        <v>13.621728</v>
       </c>
       <c r="I14">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="J14">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.65328518200574</v>
+        <v>22.795622</v>
       </c>
       <c r="N14">
-        <v>3.65328518200574</v>
+        <v>68.386866</v>
       </c>
       <c r="O14">
-        <v>0.04618353891798903</v>
+        <v>0.2266510574407626</v>
       </c>
       <c r="P14">
-        <v>0.04618353891798903</v>
+        <v>0.2266510574407626</v>
       </c>
       <c r="Q14">
-        <v>16.38501464641496</v>
+        <v>103.505254158272</v>
       </c>
       <c r="R14">
-        <v>16.38501464641496</v>
+        <v>931.5472874244479</v>
       </c>
       <c r="S14">
-        <v>0.007862664988898453</v>
+        <v>0.03826996348103496</v>
       </c>
       <c r="T14">
-        <v>0.007862664988898453</v>
+        <v>0.03826996348103496</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.48500837742407</v>
+        <v>4.540576</v>
       </c>
       <c r="H15">
-        <v>4.48500837742407</v>
+        <v>13.621728</v>
       </c>
       <c r="I15">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="J15">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.805356755231044</v>
+        <v>0.8340480000000001</v>
       </c>
       <c r="N15">
-        <v>0.805356755231044</v>
+        <v>2.502144</v>
       </c>
       <c r="O15">
-        <v>0.01018103520395245</v>
+        <v>0.00829272661023916</v>
       </c>
       <c r="P15">
-        <v>0.01018103520395245</v>
+        <v>0.00829272661023916</v>
       </c>
       <c r="Q15">
-        <v>3.612031794026299</v>
+        <v>3.787058331648</v>
       </c>
       <c r="R15">
-        <v>3.612031794026299</v>
+        <v>34.083524984832</v>
       </c>
       <c r="S15">
-        <v>0.00173330305395196</v>
+        <v>0.00140022441596155</v>
       </c>
       <c r="T15">
-        <v>0.00173330305395196</v>
+        <v>0.001400224415961549</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.48500837742407</v>
+        <v>4.540576</v>
       </c>
       <c r="H16">
-        <v>4.48500837742407</v>
+        <v>13.621728</v>
       </c>
       <c r="I16">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="J16">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.621286591234121</v>
+        <v>9.344218666666668</v>
       </c>
       <c r="N16">
-        <v>8.621286591234121</v>
+        <v>28.032656</v>
       </c>
       <c r="O16">
-        <v>0.1089872552984757</v>
+        <v>0.09290718374597164</v>
       </c>
       <c r="P16">
-        <v>0.1089872552984757</v>
+        <v>0.09290718374597164</v>
       </c>
       <c r="Q16">
-        <v>38.66654258585883</v>
+        <v>42.42813501661867</v>
       </c>
       <c r="R16">
-        <v>38.66654258585883</v>
+        <v>381.853215149568</v>
       </c>
       <c r="S16">
-        <v>0.01855488549704185</v>
+        <v>0.0156873502785815</v>
       </c>
       <c r="T16">
-        <v>0.01855488549704185</v>
+        <v>0.0156873502785815</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.48500837742407</v>
+        <v>4.540576</v>
       </c>
       <c r="H17">
-        <v>4.48500837742407</v>
+        <v>13.621728</v>
       </c>
       <c r="I17">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="J17">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>66.0236929695071</v>
+        <v>67.601958</v>
       </c>
       <c r="N17">
-        <v>66.0236929695071</v>
+        <v>202.805874</v>
       </c>
       <c r="O17">
-        <v>0.8346481705795828</v>
+        <v>0.6721490322030266</v>
       </c>
       <c r="P17">
-        <v>0.8346481705795828</v>
+        <v>0.6721490322030266</v>
       </c>
       <c r="Q17">
-        <v>296.116816076714</v>
+        <v>306.951828047808</v>
       </c>
       <c r="R17">
-        <v>296.116816076714</v>
+        <v>2762.566452430272</v>
       </c>
       <c r="S17">
-        <v>0.1420973598519112</v>
+        <v>0.1134921637104905</v>
       </c>
       <c r="T17">
-        <v>0.1420973598519112</v>
+        <v>0.1134921637104905</v>
       </c>
     </row>
   </sheetData>
